--- a/dataExcel/【P90（StatTrak™） _ 给爷冲 (略有磨损)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【P90（StatTrak™） _ 给爷冲 (略有磨损)】悠悠有品近1个月-总览.xlsx
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 14:50:10</v>
+        <v>2023-09-19 09:59:37</v>
       </c>
       <c r="B8">
-        <v>17.2</v>
+        <v>17.89</v>
       </c>
       <c r="C8">
-        <v>21.06</v>
+        <v>21.12</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0.01</v>
@@ -449,27 +449,27 @@
         <v>0.01</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 19:57:45</v>
+        <v>2023-09-19 15:10:08</v>
       </c>
       <c r="B9">
-        <v>17.3</v>
+        <v>17.57</v>
       </c>
       <c r="C9">
-        <v>21.06</v>
+        <v>21.12</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>0.01</v>
@@ -478,27 +478,27 @@
         <v>0.01</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>15.5</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 01:11:26</v>
+        <v>2023-09-19 20:21:49</v>
       </c>
       <c r="B10">
-        <v>17.2</v>
+        <v>17.57</v>
       </c>
       <c r="C10">
-        <v>21.06</v>
+        <v>21.12</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>0.01</v>
@@ -513,21 +513,21 @@
         <v>15.5</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 06:17:52</v>
+        <v>2023-09-20 01:28:37</v>
       </c>
       <c r="B11">
-        <v>17.2</v>
+        <v>17.57</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>21.12</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0.01</v>
@@ -542,18 +542,18 @@
         <v>15.5</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 11:27:52</v>
+        <v>2023-09-20 06:39:26</v>
       </c>
       <c r="B12">
-        <v>17.2</v>
+        <v>17.57</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>20.61</v>
       </c>
       <c r="D12">
         <v>53</v>
@@ -565,27 +565,27 @@
         <v>0.01</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>15.5</v>
       </c>
       <c r="I12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 16:37:51</v>
+        <v>2023-09-20 11:50:03</v>
       </c>
       <c r="B13">
-        <v>17.3</v>
+        <v>17.47</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>20.61</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -594,10 +594,10 @@
         <v>0.01</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>16.6</v>
+        <v>15.5</v>
       </c>
       <c r="I13">
         <v>13</v>
@@ -605,16 +605,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 21:48:09</v>
+        <v>2023-09-20 16:58:50</v>
       </c>
       <c r="B14">
-        <v>17.3</v>
+        <v>17.37</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>20.61</v>
       </c>
       <c r="D14">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>0.01</v>
@@ -623,27 +623,27 @@
         <v>0.01</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>15.5</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 03:00:28</v>
+        <v>2023-09-20 22:10:31</v>
       </c>
       <c r="B15">
-        <v>17.3</v>
+        <v>16.89</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>20.61</v>
       </c>
       <c r="D15">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>0.01</v>
@@ -652,27 +652,27 @@
         <v>0.01</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="I15">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 08:08:04</v>
+        <v>2023-09-21 03:19:20</v>
       </c>
       <c r="B16">
-        <v>17.3</v>
+        <v>17.57</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>20.47</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>0.01</v>
@@ -681,27 +681,27 @@
         <v>0.01</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 13:18:05</v>
+        <v>2023-09-21 08:29:02</v>
       </c>
       <c r="B17">
-        <v>17.89</v>
+        <v>17.57</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>20.47</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>0.01</v>
@@ -710,27 +710,27 @@
         <v>0.01</v>
       </c>
       <c r="G17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 18:28:04</v>
+        <v>2023-09-21 13:39:03</v>
       </c>
       <c r="B18">
-        <v>17.6</v>
+        <v>17.57</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>20.47</v>
       </c>
       <c r="D18">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0.01</v>
@@ -739,27 +739,27 @@
         <v>0.01</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18">
-        <v>15.2</v>
+        <v>16.2</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 23:40:21</v>
+        <v>2023-09-21 18:49:03</v>
       </c>
       <c r="B19">
-        <v>17.57</v>
+        <v>17.47</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>20.47</v>
       </c>
       <c r="D19">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0.01</v>
@@ -768,27 +768,27 @@
         <v>0.01</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>15.3</v>
+        <v>16.2</v>
       </c>
       <c r="I19">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 04:51:48</v>
+        <v>2023-09-21 23:59:01</v>
       </c>
       <c r="B20">
-        <v>17.6</v>
+        <v>18.72</v>
       </c>
       <c r="C20">
-        <v>21.12</v>
+        <v>20.47</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <v>0.01</v>
@@ -797,27 +797,27 @@
         <v>0.01</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>15.3</v>
+        <v>16.2</v>
       </c>
       <c r="I20">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 09:59:37</v>
+        <v>2023-09-22 05:09:00</v>
       </c>
       <c r="B21">
-        <v>17.89</v>
+        <v>18.72</v>
       </c>
       <c r="C21">
-        <v>21.12</v>
+        <v>20.67</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>0.01</v>
@@ -826,27 +826,27 @@
         <v>0.01</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>15.3</v>
+        <v>16.2</v>
       </c>
       <c r="I21">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 15:10:08</v>
+        <v>2023-09-22 10:18:59</v>
       </c>
       <c r="B22">
-        <v>17.57</v>
+        <v>17.47</v>
       </c>
       <c r="C22">
-        <v>21.12</v>
+        <v>20.67</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>0.01</v>
@@ -855,27 +855,27 @@
         <v>0.01</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="I22">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 20:21:49</v>
+        <v>2023-09-22 15:29:16</v>
       </c>
       <c r="B23">
-        <v>17.57</v>
+        <v>17.37</v>
       </c>
       <c r="C23">
-        <v>21.12</v>
+        <v>20.67</v>
       </c>
       <c r="D23">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>0.01</v>
@@ -884,27 +884,27 @@
         <v>0.01</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="I23">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-20 01:28:37</v>
+        <v>2023-09-22 20:39:31</v>
       </c>
       <c r="B24">
-        <v>17.57</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>21.12</v>
+        <v>20.67</v>
       </c>
       <c r="D24">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>0.01</v>
@@ -913,27 +913,27 @@
         <v>0.01</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="I24">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 06:39:26</v>
+        <v>2023-09-23 01:49:12</v>
       </c>
       <c r="B25">
-        <v>17.57</v>
+        <v>16.89</v>
       </c>
       <c r="C25">
-        <v>20.61</v>
+        <v>20.67</v>
       </c>
       <c r="D25">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0.01</v>
@@ -942,27 +942,27 @@
         <v>0.01</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="I25">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 11:50:03</v>
+        <v>2023-09-23 07:01:11</v>
       </c>
       <c r="B26">
-        <v>17.47</v>
+        <v>16.89</v>
       </c>
       <c r="C26">
-        <v>20.61</v>
+        <v>20.47</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0.01</v>
@@ -971,27 +971,27 @@
         <v>0.01</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="I26">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 16:58:50</v>
+        <v>2023-09-23 12:10:48</v>
       </c>
       <c r="B27">
-        <v>17.37</v>
+        <v>16.8</v>
       </c>
       <c r="C27">
-        <v>20.61</v>
+        <v>20.47</v>
       </c>
       <c r="D27">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>0.01</v>
@@ -1003,21 +1003,21 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="I27">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 22:10:31</v>
+        <v>2023-09-23 17:20:19</v>
       </c>
       <c r="B28">
-        <v>16.89</v>
+        <v>16.39</v>
       </c>
       <c r="C28">
-        <v>20.61</v>
+        <v>20.47</v>
       </c>
       <c r="D28">
         <v>59</v>
@@ -1032,24 +1032,24 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
       <c r="I28">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 03:19:20</v>
+        <v>2023-09-23 22:29:32</v>
       </c>
       <c r="B29">
-        <v>17.57</v>
+        <v>16.8</v>
       </c>
       <c r="C29">
         <v>20.47</v>
       </c>
       <c r="D29">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <v>0.01</v>
@@ -1058,27 +1058,27 @@
         <v>0.01</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29">
+        <v>16.2</v>
+      </c>
+      <c r="I29">
         <v>16</v>
-      </c>
-      <c r="I29">
-        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 08:29:02</v>
+        <v>2023-09-24 03:39:31</v>
       </c>
       <c r="B30">
-        <v>17.57</v>
+        <v>16.89</v>
       </c>
       <c r="C30">
-        <v>20.47</v>
+        <v>19.89</v>
       </c>
       <c r="D30">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30">
         <v>0.01</v>
@@ -1087,27 +1087,27 @@
         <v>0.01</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30">
+        <v>16.2</v>
+      </c>
+      <c r="I30">
         <v>16</v>
-      </c>
-      <c r="I30">
-        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 13:39:03</v>
+        <v>2023-09-24 08:50:27</v>
       </c>
       <c r="B31">
-        <v>17.57</v>
+        <v>16.89</v>
       </c>
       <c r="C31">
-        <v>20.47</v>
+        <v>19.89</v>
       </c>
       <c r="D31">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E31">
         <v>0.01</v>
@@ -1122,18 +1122,18 @@
         <v>16.2</v>
       </c>
       <c r="I31">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-21 18:49:03</v>
+        <v>2023-09-24 13:59:32</v>
       </c>
       <c r="B32">
-        <v>17.47</v>
+        <v>16.89</v>
       </c>
       <c r="C32">
-        <v>20.47</v>
+        <v>19.89</v>
       </c>
       <c r="D32">
         <v>53</v>
@@ -1145,27 +1145,27 @@
         <v>0.01</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H32">
         <v>16.2</v>
       </c>
       <c r="I32">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-21 23:59:01</v>
+        <v>2023-09-24 19:09:31</v>
       </c>
       <c r="B33">
-        <v>18.72</v>
+        <v>16.89</v>
       </c>
       <c r="C33">
-        <v>20.47</v>
+        <v>19.89</v>
       </c>
       <c r="D33">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <v>0.01</v>
@@ -1174,27 +1174,27 @@
         <v>0.01</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <v>16.2</v>
       </c>
       <c r="I33">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 05:09:00</v>
+        <v>2023-09-25 00:19:37</v>
       </c>
       <c r="B34">
-        <v>18.72</v>
+        <v>16.89</v>
       </c>
       <c r="C34">
-        <v>20.67</v>
+        <v>19.89</v>
       </c>
       <c r="D34">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E34">
         <v>0.01</v>
@@ -1203,27 +1203,27 @@
         <v>0.01</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <v>16.2</v>
       </c>
       <c r="I34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 10:18:59</v>
+        <v>2023-09-25 05:29:35</v>
       </c>
       <c r="B35">
-        <v>17.47</v>
+        <v>16.89</v>
       </c>
       <c r="C35">
-        <v>20.67</v>
+        <v>20.14</v>
       </c>
       <c r="D35">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E35">
         <v>0.01</v>
@@ -1232,27 +1232,27 @@
         <v>0.01</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35">
         <v>16.2</v>
       </c>
       <c r="I35">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 15:29:16</v>
+        <v>2023-09-25 10:39:34</v>
       </c>
       <c r="B36">
-        <v>17.37</v>
+        <v>16.89</v>
       </c>
       <c r="C36">
-        <v>20.67</v>
+        <v>20.14</v>
       </c>
       <c r="D36">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36">
         <v>0.01</v>
@@ -1261,27 +1261,27 @@
         <v>0.01</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="I36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-22 20:39:31</v>
+        <v>2023-09-25 15:49:34</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>16.89</v>
       </c>
       <c r="C37">
-        <v>20.67</v>
+        <v>20.14</v>
       </c>
       <c r="D37">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <v>0.01</v>
@@ -1290,27 +1290,27 @@
         <v>0.01</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H37">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="I37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-23 01:49:12</v>
+        <v>2023-09-25 20:59:33</v>
       </c>
       <c r="B38">
-        <v>16.89</v>
+        <v>16.8</v>
       </c>
       <c r="C38">
-        <v>20.67</v>
+        <v>20.14</v>
       </c>
       <c r="D38">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38">
         <v>0.01</v>
@@ -1319,10 +1319,10 @@
         <v>0.01</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="I38">
         <v>16</v>
@@ -1330,16 +1330,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 07:01:11</v>
+        <v>2023-09-26 02:09:32</v>
       </c>
       <c r="B39">
-        <v>16.89</v>
+        <v>16.8</v>
       </c>
       <c r="C39">
-        <v>20.47</v>
+        <v>20.34</v>
       </c>
       <c r="D39">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39">
         <v>0.01</v>
@@ -1348,27 +1348,27 @@
         <v>0.01</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="I39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 12:10:48</v>
+        <v>2023-09-26 07:19:31</v>
       </c>
       <c r="B40">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="C40">
-        <v>20.47</v>
+        <v>20.34</v>
       </c>
       <c r="D40">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <v>0.01</v>
@@ -1380,24 +1380,24 @@
         <v>9</v>
       </c>
       <c r="H40">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="I40">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 17:20:19</v>
+        <v>2023-09-26 12:30:26</v>
       </c>
       <c r="B41">
-        <v>16.39</v>
+        <v>16.3</v>
       </c>
       <c r="C41">
-        <v>20.47</v>
+        <v>20.34</v>
       </c>
       <c r="D41">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41">
         <v>0.01</v>
@@ -1409,24 +1409,24 @@
         <v>9</v>
       </c>
       <c r="H41">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="I41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 22:29:32</v>
+        <v>2023-09-26 17:39:37</v>
       </c>
       <c r="B42">
         <v>16.8</v>
       </c>
       <c r="C42">
-        <v>20.47</v>
+        <v>20.34</v>
       </c>
       <c r="D42">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E42">
         <v>0.01</v>
@@ -1435,27 +1435,27 @@
         <v>0.01</v>
       </c>
       <c r="G42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="I42">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 03:39:31</v>
+        <v>2023-09-26 22:43:15</v>
       </c>
       <c r="B43">
-        <v>16.89</v>
+        <v>16.8</v>
       </c>
       <c r="C43">
-        <v>19.89</v>
+        <v>20.34</v>
       </c>
       <c r="D43">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E43">
         <v>0.01</v>
@@ -1464,27 +1464,27 @@
         <v>0.01</v>
       </c>
       <c r="G43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H43">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="I43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 08:50:27</v>
+        <v>2023-09-27 03:53:14</v>
       </c>
       <c r="B44">
-        <v>16.89</v>
+        <v>16.8</v>
       </c>
       <c r="C44">
-        <v>19.89</v>
+        <v>20.73</v>
       </c>
       <c r="D44">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E44">
         <v>0.01</v>
@@ -1493,27 +1493,27 @@
         <v>0.01</v>
       </c>
       <c r="G44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="I44">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 13:59:32</v>
+        <v>2023-09-27 09:04:40</v>
       </c>
       <c r="B45">
-        <v>16.89</v>
+        <v>16.8</v>
       </c>
       <c r="C45">
-        <v>19.89</v>
+        <v>20.73</v>
       </c>
       <c r="D45">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E45">
         <v>0.01</v>
@@ -1522,27 +1522,27 @@
         <v>0.01</v>
       </c>
       <c r="G45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="I45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-24 19:09:31</v>
+        <v>2023-09-27 14:13:06</v>
       </c>
       <c r="B46">
-        <v>16.89</v>
+        <v>16.8</v>
       </c>
       <c r="C46">
-        <v>19.89</v>
+        <v>20.73</v>
       </c>
       <c r="D46">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <v>0.01</v>
@@ -1551,27 +1551,27 @@
         <v>0.01</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H46">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="I46">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-25 00:19:37</v>
+        <v>2023-09-27 19:23:05</v>
       </c>
       <c r="B47">
-        <v>16.89</v>
+        <v>16.39</v>
       </c>
       <c r="C47">
-        <v>19.89</v>
+        <v>20.73</v>
       </c>
       <c r="D47">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E47">
         <v>0.01</v>
@@ -1580,10 +1580,10 @@
         <v>0.01</v>
       </c>
       <c r="G47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H47">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="I47">
         <v>14</v>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 05:29:35</v>
+        <v>2023-09-28 00:33:37</v>
       </c>
       <c r="B48">
-        <v>16.89</v>
+        <v>16.3</v>
       </c>
       <c r="C48">
-        <v>20.14</v>
+        <v>20.73</v>
       </c>
       <c r="D48">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E48">
         <v>0.01</v>
@@ -1609,27 +1609,27 @@
         <v>0.01</v>
       </c>
       <c r="G48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="I48">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 10:39:34</v>
+        <v>2023-09-28 05:43:11</v>
       </c>
       <c r="B49">
-        <v>16.89</v>
+        <v>16.3</v>
       </c>
       <c r="C49">
-        <v>20.14</v>
+        <v>19.63</v>
       </c>
       <c r="D49">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E49">
         <v>0.01</v>
@@ -1638,27 +1638,27 @@
         <v>0.01</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="I49">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 15:49:34</v>
+        <v>2023-09-28 10:53:10</v>
       </c>
       <c r="B50">
-        <v>16.89</v>
+        <v>16.3</v>
       </c>
       <c r="C50">
-        <v>20.14</v>
+        <v>19.63</v>
       </c>
       <c r="D50">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E50">
         <v>0.01</v>
@@ -1667,27 +1667,27 @@
         <v>0.01</v>
       </c>
       <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>15.9</v>
+      </c>
+      <c r="I50">
         <v>9</v>
-      </c>
-      <c r="H50">
-        <v>16.1</v>
-      </c>
-      <c r="I50">
-        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 20:59:33</v>
+        <v>2023-09-28 16:03:09</v>
       </c>
       <c r="B51">
-        <v>16.8</v>
+        <v>16.39</v>
       </c>
       <c r="C51">
-        <v>20.14</v>
+        <v>19.63</v>
       </c>
       <c r="D51">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E51">
         <v>0.01</v>
@@ -1696,27 +1696,27 @@
         <v>0.01</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H51">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="I51">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-26 02:09:32</v>
+        <v>2023-09-28 21:13:08</v>
       </c>
       <c r="B52">
         <v>16.8</v>
       </c>
       <c r="C52">
-        <v>20.34</v>
+        <v>19.63</v>
       </c>
       <c r="D52">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E52">
         <v>0.01</v>
@@ -1725,27 +1725,27 @@
         <v>0.01</v>
       </c>
       <c r="G52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H52">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="I52">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 07:19:31</v>
+        <v>2023-09-29 02:23:07</v>
       </c>
       <c r="B53">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
       <c r="C53">
         <v>20.34</v>
       </c>
       <c r="D53">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E53">
         <v>0.01</v>
@@ -1754,27 +1754,27 @@
         <v>0.01</v>
       </c>
       <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>15.8</v>
+      </c>
+      <c r="I53">
         <v>9</v>
-      </c>
-      <c r="H53">
-        <v>16.1</v>
-      </c>
-      <c r="I53">
-        <v>13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 12:30:26</v>
+        <v>2023-09-29 07:33:30</v>
       </c>
       <c r="B54">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
       <c r="C54">
         <v>20.34</v>
       </c>
       <c r="D54">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E54">
         <v>0.01</v>
@@ -1783,18 +1783,18 @@
         <v>0.01</v>
       </c>
       <c r="G54">
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <v>15.8</v>
+      </c>
+      <c r="I54">
         <v>9</v>
-      </c>
-      <c r="H54">
-        <v>15.9</v>
-      </c>
-      <c r="I54">
-        <v>14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-26 17:39:37</v>
+        <v>2023-09-29 12:43:19</v>
       </c>
       <c r="B55">
         <v>16.8</v>
@@ -1803,7 +1803,7 @@
         <v>20.34</v>
       </c>
       <c r="D55">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E55">
         <v>0.01</v>
@@ -1815,24 +1815,24 @@
         <v>10</v>
       </c>
       <c r="H55">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="I55">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-26 22:43:15</v>
+        <v>2023-09-29 17:53:18</v>
       </c>
       <c r="B56">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="C56">
         <v>20.34</v>
       </c>
       <c r="D56">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E56">
         <v>0.01</v>
@@ -1844,24 +1844,24 @@
         <v>10</v>
       </c>
       <c r="H56">
-        <v>15.9</v>
+        <v>15.1</v>
       </c>
       <c r="I56">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-27 03:53:14</v>
+        <v>2023-09-29 23:03:17</v>
       </c>
       <c r="B57">
         <v>16.8</v>
       </c>
       <c r="C57">
-        <v>20.73</v>
+        <v>20.34</v>
       </c>
       <c r="D57">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E57">
         <v>0.01</v>
@@ -1870,27 +1870,27 @@
         <v>0.01</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H57">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="I57">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 09:04:40</v>
+        <v>2023-09-30 04:08:16</v>
       </c>
       <c r="B58">
         <v>16.8</v>
       </c>
       <c r="C58">
-        <v>20.73</v>
+        <v>20.47</v>
       </c>
       <c r="D58">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E58">
         <v>0.01</v>
@@ -1899,27 +1899,27 @@
         <v>0.01</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H58">
-        <v>15.9</v>
+        <v>15.1</v>
       </c>
       <c r="I58">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 14:13:06</v>
+        <v>2023-09-30 09:18:15</v>
       </c>
       <c r="B59">
         <v>16.8</v>
       </c>
       <c r="C59">
-        <v>20.73</v>
+        <v>20.47</v>
       </c>
       <c r="D59">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E59">
         <v>0.01</v>
@@ -1928,27 +1928,27 @@
         <v>0.01</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H59">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="I59">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-27 19:23:05</v>
+        <v>2023-09-30 14:28:14</v>
       </c>
       <c r="B60">
-        <v>16.39</v>
+        <v>16.8</v>
       </c>
       <c r="C60">
-        <v>20.73</v>
+        <v>20.47</v>
       </c>
       <c r="D60">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E60">
         <v>0.01</v>
@@ -1957,27 +1957,27 @@
         <v>0.01</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H60">
-        <v>15.9</v>
+        <v>14.1</v>
       </c>
       <c r="I60">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-28 00:33:37</v>
+        <v>2023-09-30 19:38:13</v>
       </c>
       <c r="B61">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
       <c r="C61">
-        <v>20.73</v>
+        <v>20.47</v>
       </c>
       <c r="D61">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E61">
         <v>0.01</v>
@@ -1986,27 +1986,27 @@
         <v>0.01</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H61">
-        <v>15.9</v>
+        <v>14.1</v>
       </c>
       <c r="I61">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-28 05:43:11</v>
+        <v>2023-10-01 00:49:21</v>
       </c>
       <c r="B62">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
       <c r="C62">
-        <v>19.63</v>
+        <v>20.47</v>
       </c>
       <c r="D62">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E62">
         <v>0.01</v>
@@ -2015,27 +2015,27 @@
         <v>0.01</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H62">
-        <v>15.9</v>
+        <v>14.1</v>
       </c>
       <c r="I62">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 10:53:10</v>
+        <v>2023-10-01 05:58:20</v>
       </c>
       <c r="B63">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
       <c r="C63">
-        <v>19.63</v>
+        <v>20.14</v>
       </c>
       <c r="D63">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E63">
         <v>0.01</v>
@@ -2044,27 +2044,27 @@
         <v>0.01</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H63">
-        <v>15.9</v>
+        <v>14</v>
       </c>
       <c r="I63">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 16:03:09</v>
+        <v>2023-10-01 11:08:19</v>
       </c>
       <c r="B64">
-        <v>16.39</v>
+        <v>16.8</v>
       </c>
       <c r="C64">
-        <v>19.63</v>
+        <v>20.14</v>
       </c>
       <c r="D64">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E64">
         <v>0.01</v>
@@ -2073,10 +2073,10 @@
         <v>0.01</v>
       </c>
       <c r="G64">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H64">
-        <v>15.8</v>
+        <v>14.1</v>
       </c>
       <c r="I64">
         <v>5</v>
@@ -2084,16 +2084,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-28 21:13:08</v>
+        <v>2023-10-01 16:18:18</v>
       </c>
       <c r="B65">
-        <v>16.8</v>
+        <v>16.79</v>
       </c>
       <c r="C65">
-        <v>19.63</v>
+        <v>20.14</v>
       </c>
       <c r="D65">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E65">
         <v>0.01</v>
@@ -2102,27 +2102,27 @@
         <v>0.01</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H65">
-        <v>15.8</v>
+        <v>11.1</v>
       </c>
       <c r="I65">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-29 02:23:07</v>
+        <v>2023-10-01 21:28:17</v>
       </c>
       <c r="B66">
-        <v>16.8</v>
+        <v>16.79</v>
       </c>
       <c r="C66">
-        <v>20.34</v>
+        <v>20.14</v>
       </c>
       <c r="D66">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E66">
         <v>0.01</v>
@@ -2131,27 +2131,27 @@
         <v>0.01</v>
       </c>
       <c r="G66">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H66">
-        <v>15.8</v>
+        <v>11</v>
       </c>
       <c r="I66">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-29 07:33:30</v>
+        <v>2023-10-02 02:38:16</v>
       </c>
       <c r="B67">
-        <v>16.8</v>
+        <v>16.79</v>
       </c>
       <c r="C67">
-        <v>20.34</v>
+        <v>19.95</v>
       </c>
       <c r="D67">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E67">
         <v>0.01</v>
@@ -2160,27 +2160,27 @@
         <v>0.01</v>
       </c>
       <c r="G67">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H67">
-        <v>15.8</v>
+        <v>13</v>
       </c>
       <c r="I67">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 12:43:19</v>
+        <v>2023-10-02 07:48:15</v>
       </c>
       <c r="B68">
-        <v>16.8</v>
+        <v>16.79</v>
       </c>
       <c r="C68">
-        <v>20.34</v>
+        <v>19.95</v>
       </c>
       <c r="D68">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E68">
         <v>0.01</v>
@@ -2189,27 +2189,27 @@
         <v>0.01</v>
       </c>
       <c r="G68">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H68">
-        <v>15.2</v>
+        <v>13</v>
       </c>
       <c r="I68">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-29 17:53:18</v>
+        <v>2023-10-02 12:59:06</v>
       </c>
       <c r="B69">
-        <v>16.7</v>
+        <v>16.79</v>
       </c>
       <c r="C69">
-        <v>20.34</v>
+        <v>19.95</v>
       </c>
       <c r="D69">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E69">
         <v>0.01</v>
@@ -2218,27 +2218,27 @@
         <v>0.01</v>
       </c>
       <c r="G69">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H69">
-        <v>15.1</v>
+        <v>11.2</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-29 23:03:17</v>
+        <v>2023-10-02 18:08:21</v>
       </c>
       <c r="B70">
-        <v>16.8</v>
+        <v>16.48</v>
       </c>
       <c r="C70">
-        <v>20.34</v>
+        <v>19.95</v>
       </c>
       <c r="D70">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E70">
         <v>0.01</v>
@@ -2247,27 +2247,27 @@
         <v>0.01</v>
       </c>
       <c r="G70">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H70">
-        <v>15.2</v>
+        <v>11.2</v>
       </c>
       <c r="I70">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-30 04:08:16</v>
+        <v>2023-10-02 23:18:20</v>
       </c>
       <c r="B71">
-        <v>16.8</v>
+        <v>16.39</v>
       </c>
       <c r="C71">
-        <v>20.47</v>
+        <v>19.95</v>
       </c>
       <c r="D71">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E71">
         <v>0.01</v>
@@ -2276,27 +2276,27 @@
         <v>0.01</v>
       </c>
       <c r="G71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H71">
-        <v>15.1</v>
+        <v>12.2</v>
       </c>
       <c r="I71">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 09:18:15</v>
+        <v>2023-10-03 04:28:19</v>
       </c>
       <c r="B72">
-        <v>16.8</v>
+        <v>16.39</v>
       </c>
       <c r="C72">
-        <v>20.47</v>
+        <v>19.95</v>
       </c>
       <c r="D72">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E72">
         <v>0.01</v>
@@ -2305,27 +2305,27 @@
         <v>0.01</v>
       </c>
       <c r="G72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H72">
-        <v>15.2</v>
+        <v>12.1</v>
       </c>
       <c r="I72">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 14:28:14</v>
+        <v>2023-10-03 09:38:18</v>
       </c>
       <c r="B73">
-        <v>16.8</v>
+        <v>16.79</v>
       </c>
       <c r="C73">
-        <v>20.47</v>
+        <v>19.95</v>
       </c>
       <c r="D73">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E73">
         <v>0.01</v>
@@ -2337,7 +2337,7 @@
         <v>11</v>
       </c>
       <c r="H73">
-        <v>14.1</v>
+        <v>12.1</v>
       </c>
       <c r="I73">
         <v>6</v>
@@ -2345,16 +2345,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-30 19:38:13</v>
+        <v>2023-10-03 14:39:47</v>
       </c>
       <c r="B74">
-        <v>16.8</v>
+        <v>16.79</v>
       </c>
       <c r="C74">
-        <v>20.47</v>
+        <v>19.95</v>
       </c>
       <c r="D74">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E74">
         <v>0.01</v>
@@ -2366,24 +2366,24 @@
         <v>11</v>
       </c>
       <c r="H74">
-        <v>14.1</v>
+        <v>12.2</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-10-01 00:49:21</v>
+        <v>2023-10-03 19:49:46</v>
       </c>
       <c r="B75">
-        <v>16.8</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>20.47</v>
+        <v>19.95</v>
       </c>
       <c r="D75">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E75">
         <v>0.01</v>
@@ -2392,10 +2392,10 @@
         <v>0.01</v>
       </c>
       <c r="G75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75">
-        <v>14.1</v>
+        <v>12.3</v>
       </c>
       <c r="I75">
         <v>5</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-01 05:58:20</v>
+        <v>2023-10-04 00:59:45</v>
       </c>
       <c r="B76">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="C76">
-        <v>20.14</v>
+        <v>19.95</v>
       </c>
       <c r="D76">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E76">
         <v>0.01</v>
@@ -2421,27 +2421,27 @@
         <v>0.01</v>
       </c>
       <c r="G76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H76">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 11:08:19</v>
+        <v>2023-10-04 06:09:44</v>
       </c>
       <c r="B77">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="C77">
-        <v>20.14</v>
+        <v>19.95</v>
       </c>
       <c r="D77">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E77">
         <v>0.01</v>
@@ -2450,10 +2450,10 @@
         <v>0.01</v>
       </c>
       <c r="G77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H77">
-        <v>14.1</v>
+        <v>12.5</v>
       </c>
       <c r="I77">
         <v>5</v>
@@ -2461,16 +2461,16 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 16:18:18</v>
+        <v>2023-10-04 11:19:43</v>
       </c>
       <c r="B78">
-        <v>16.79</v>
+        <v>16.6</v>
       </c>
       <c r="C78">
-        <v>20.14</v>
+        <v>19.95</v>
       </c>
       <c r="D78">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E78">
         <v>0.01</v>
@@ -2479,27 +2479,27 @@
         <v>0.01</v>
       </c>
       <c r="G78">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H78">
-        <v>11.1</v>
+        <v>12.5</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-01 21:28:17</v>
+        <v>2023-10-04 16:29:42</v>
       </c>
       <c r="B79">
-        <v>16.79</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>20.14</v>
+        <v>19.95</v>
       </c>
       <c r="D79">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E79">
         <v>0.01</v>
@@ -2508,21 +2508,21 @@
         <v>0.01</v>
       </c>
       <c r="G79">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H79">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-02 02:38:16</v>
+        <v>2023-10-04 21:39:41</v>
       </c>
       <c r="B80">
-        <v>16.79</v>
+        <v>16</v>
       </c>
       <c r="C80">
         <v>19.95</v>
@@ -2537,39 +2537,39 @@
         <v>0.01</v>
       </c>
       <c r="G80">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H80">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="I80">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 07:48:15</v>
+        <v>2023-10-05 02:49:40</v>
       </c>
       <c r="B81">
-        <v>16.79</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>19.95</v>
+        <v>22.16</v>
       </c>
       <c r="D81">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E81">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F81">
         <v>0.01</v>
       </c>
       <c r="G81">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H81">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I81">
         <v>5</v>
@@ -2577,28 +2577,28 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 12:59:06</v>
+        <v>2023-10-05 07:59:39</v>
       </c>
       <c r="B82">
-        <v>16.79</v>
+        <v>16</v>
       </c>
       <c r="C82">
-        <v>19.95</v>
+        <v>22.16</v>
       </c>
       <c r="D82">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E82">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F82">
         <v>0.01</v>
       </c>
       <c r="G82">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H82">
-        <v>11.2</v>
+        <v>12.5</v>
       </c>
       <c r="I82">
         <v>5</v>
@@ -2606,193 +2606,193 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-02 18:08:21</v>
+        <v>2023-10-05 13:09:38</v>
       </c>
       <c r="B83">
-        <v>16.48</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>19.95</v>
+        <v>22.16</v>
       </c>
       <c r="D83">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E83">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F83">
         <v>0.01</v>
       </c>
       <c r="G83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H83">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-02 23:18:20</v>
+        <v>2023-10-05 18:10:03</v>
       </c>
       <c r="B84">
-        <v>16.39</v>
+        <v>15.6</v>
       </c>
       <c r="C84">
-        <v>19.95</v>
+        <v>22.16</v>
       </c>
       <c r="D84">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E84">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F84">
         <v>0.01</v>
       </c>
       <c r="G84">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H84">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="I84">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-03 04:28:19</v>
+        <v>2023-10-05 23:20:02</v>
       </c>
       <c r="B85">
-        <v>16.39</v>
+        <v>15.5</v>
       </c>
       <c r="C85">
-        <v>19.95</v>
+        <v>22.16</v>
       </c>
       <c r="D85">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E85">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F85">
         <v>0.01</v>
       </c>
       <c r="G85">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H85">
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="I85">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 09:38:18</v>
+        <v>2023-10-06 04:30:01</v>
       </c>
       <c r="B86">
-        <v>16.79</v>
+        <v>15</v>
       </c>
       <c r="C86">
-        <v>19.95</v>
+        <v>20.34</v>
       </c>
       <c r="D86">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E86">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F86">
         <v>0.01</v>
       </c>
       <c r="G86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H86">
-        <v>12.1</v>
+        <v>13.5</v>
       </c>
       <c r="I86">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 14:39:47</v>
+        <v>2023-10-06 09:30:22</v>
       </c>
       <c r="B87">
-        <v>16.79</v>
+        <v>15.8</v>
       </c>
       <c r="C87">
-        <v>19.95</v>
+        <v>20.34</v>
       </c>
       <c r="D87">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E87">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F87">
         <v>0.01</v>
       </c>
       <c r="G87">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H87">
-        <v>12.2</v>
+        <v>13.1</v>
       </c>
       <c r="I87">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-03 19:49:46</v>
+        <v>2023-10-06 14:40:21</v>
       </c>
       <c r="B88">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C88">
-        <v>19.95</v>
+        <v>20.34</v>
       </c>
       <c r="D88">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E88">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F88">
         <v>0.01</v>
       </c>
       <c r="G88">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>12.3</v>
+        <v>13.5</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-04 00:59:45</v>
+        <v>2023-10-06 19:50:20</v>
       </c>
       <c r="B89">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="C89">
-        <v>19.95</v>
+        <v>20.34</v>
       </c>
       <c r="D89">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E89">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F89">
         <v>0.01</v>
@@ -2801,27 +2801,27 @@
         <v>10</v>
       </c>
       <c r="H89">
-        <v>12.5</v>
+        <v>13.7</v>
       </c>
       <c r="I89">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-04 06:09:44</v>
+        <v>2023-10-07 00:50:33</v>
       </c>
       <c r="B90">
-        <v>16.6</v>
+        <v>15.9</v>
       </c>
       <c r="C90">
-        <v>19.95</v>
+        <v>20.34</v>
       </c>
       <c r="D90">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E90">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F90">
         <v>0.01</v>
@@ -2830,27 +2830,27 @@
         <v>10</v>
       </c>
       <c r="H90">
-        <v>12.5</v>
+        <v>13.8</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 11:19:43</v>
+        <v>2023-10-07 06:00:32</v>
       </c>
       <c r="B91">
-        <v>16.6</v>
+        <v>15.9</v>
       </c>
       <c r="C91">
-        <v>19.95</v>
+        <v>20.47</v>
       </c>
       <c r="D91">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E91">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F91">
         <v>0.01</v>
@@ -2859,27 +2859,27 @@
         <v>10</v>
       </c>
       <c r="H91">
-        <v>12.5</v>
+        <v>13.8</v>
       </c>
       <c r="I91">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 16:29:42</v>
+        <v>2023-10-07 11:03:07</v>
       </c>
       <c r="B92">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C92">
-        <v>19.95</v>
+        <v>20.47</v>
       </c>
       <c r="D92">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E92">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F92">
         <v>0.01</v>
@@ -2888,53 +2888,53 @@
         <v>10</v>
       </c>
       <c r="H92">
-        <v>12.5</v>
+        <v>13.8</v>
       </c>
       <c r="I92">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-04 21:39:41</v>
+        <v>2023-10-07 16:13:00</v>
       </c>
       <c r="B93">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C93">
-        <v>19.95</v>
+        <v>20.47</v>
       </c>
       <c r="D93">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E93">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F93">
         <v>0.01</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H93">
-        <v>12.3</v>
+        <v>13.8</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-05 02:49:40</v>
+        <v>2023-10-07 21:21:49</v>
       </c>
       <c r="B94">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C94">
-        <v>22.16</v>
+        <v>20.47</v>
       </c>
       <c r="D94">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E94">
         <v>0.02</v>
@@ -2943,27 +2943,27 @@
         <v>0.01</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H94">
-        <v>12.5</v>
+        <v>13.8</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 07:59:39</v>
+        <v>2023-10-08 02:31:48</v>
       </c>
       <c r="B95">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C95">
-        <v>22.16</v>
+        <v>21.71</v>
       </c>
       <c r="D95">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E95">
         <v>0.02</v>
@@ -2975,24 +2975,24 @@
         <v>10</v>
       </c>
       <c r="H95">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 13:09:38</v>
+        <v>2023-10-08 07:41:47</v>
       </c>
       <c r="B96">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="C96">
-        <v>22.16</v>
+        <v>21.71</v>
       </c>
       <c r="D96">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E96">
         <v>0.02</v>
@@ -3004,24 +3004,24 @@
         <v>10</v>
       </c>
       <c r="H96">
-        <v>12.6</v>
+        <v>14</v>
       </c>
       <c r="I96">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-05 18:10:03</v>
+        <v>2023-10-08 12:52:17</v>
       </c>
       <c r="B97">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="C97">
-        <v>22.16</v>
+        <v>21.71</v>
       </c>
       <c r="D97">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E97">
         <v>0.02</v>
@@ -3030,27 +3030,27 @@
         <v>0.01</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H97">
-        <v>12.7</v>
+        <v>14</v>
       </c>
       <c r="I97">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-05 23:20:02</v>
+        <v>2023-10-08 18:02:22</v>
       </c>
       <c r="B98">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>22.16</v>
+        <v>21.71</v>
       </c>
       <c r="D98">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E98">
         <v>0.02</v>
@@ -3059,27 +3059,27 @@
         <v>0.01</v>
       </c>
       <c r="G98">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H98">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="I98">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-06 04:30:01</v>
+        <v>2023-10-08 23:11:59</v>
       </c>
       <c r="B99">
         <v>15</v>
       </c>
       <c r="C99">
-        <v>20.34</v>
+        <v>21.71</v>
       </c>
       <c r="D99">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E99">
         <v>0.02</v>
@@ -3088,27 +3088,27 @@
         <v>0.01</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H99">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="I99">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 09:30:22</v>
+        <v>2023-10-09 04:21:58</v>
       </c>
       <c r="B100">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>20.34</v>
+        <v>20.93</v>
       </c>
       <c r="D100">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E100">
         <v>0.02</v>
@@ -3117,27 +3117,27 @@
         <v>0.01</v>
       </c>
       <c r="G100">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H100">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="I100">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 14:40:21</v>
+        <v>2023-10-09 09:33:23</v>
       </c>
       <c r="B101">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>20.34</v>
+        <v>20.93</v>
       </c>
       <c r="D101">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E101">
         <v>0.02</v>
@@ -3146,27 +3146,27 @@
         <v>0.01</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H101">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="I101">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-06 19:50:20</v>
+        <v>2023-10-09 14:44:22</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>14.69</v>
       </c>
       <c r="C102">
-        <v>20.34</v>
+        <v>20.93</v>
       </c>
       <c r="D102">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E102">
         <v>0.02</v>
@@ -3175,27 +3175,27 @@
         <v>0.01</v>
       </c>
       <c r="G102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H102">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="I102">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-07 00:50:33</v>
+        <v>2023-10-09 19:52:11</v>
       </c>
       <c r="B103">
-        <v>15.9</v>
+        <v>14.49</v>
       </c>
       <c r="C103">
-        <v>20.34</v>
+        <v>20.93</v>
       </c>
       <c r="D103">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E103">
         <v>0.02</v>
@@ -3204,27 +3204,27 @@
         <v>0.01</v>
       </c>
       <c r="G103">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H103">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="I103">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-07 06:00:32</v>
+        <v>2023-10-10 01:02:10</v>
       </c>
       <c r="B104">
-        <v>15.9</v>
+        <v>14.39</v>
       </c>
       <c r="C104">
-        <v>20.47</v>
+        <v>20.93</v>
       </c>
       <c r="D104">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E104">
         <v>0.02</v>
@@ -3233,27 +3233,27 @@
         <v>0.01</v>
       </c>
       <c r="G104">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H104">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="I104">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-07 11:03:07</v>
+        <v>2023-10-10 06:12:09</v>
       </c>
       <c r="B105">
-        <v>15.9</v>
+        <v>14.29</v>
       </c>
       <c r="C105">
-        <v>20.47</v>
+        <v>20.34</v>
       </c>
       <c r="D105">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E105">
         <v>0.02</v>
@@ -3262,27 +3262,27 @@
         <v>0.01</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H105">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="I105">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-07 16:13:00</v>
+        <v>2023-10-10 11:17:15</v>
       </c>
       <c r="B106">
-        <v>15.5</v>
+        <v>14.49</v>
       </c>
       <c r="C106">
-        <v>20.47</v>
+        <v>20.34</v>
       </c>
       <c r="D106">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E106">
         <v>0.02</v>
@@ -3294,24 +3294,24 @@
         <v>11</v>
       </c>
       <c r="H106">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="I106">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-07 21:21:49</v>
+        <v>2023-10-10 16:25:58</v>
       </c>
       <c r="B107">
         <v>15.9</v>
       </c>
       <c r="C107">
-        <v>20.47</v>
+        <v>20.34</v>
       </c>
       <c r="D107">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E107">
         <v>0.02</v>
@@ -3320,27 +3320,27 @@
         <v>0.01</v>
       </c>
       <c r="G107">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H107">
         <v>13.8</v>
       </c>
       <c r="I107">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-08 02:31:48</v>
+        <v>2023-10-10 21:38:29</v>
       </c>
       <c r="B108">
         <v>15.9</v>
       </c>
       <c r="C108">
-        <v>21.71</v>
+        <v>20.34</v>
       </c>
       <c r="D108">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E108">
         <v>0.02</v>
@@ -3349,27 +3349,27 @@
         <v>0.01</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H108">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="I108">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-08 07:41:47</v>
+        <v>2023-10-11 02:48:41</v>
       </c>
       <c r="B109">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C109">
-        <v>21.71</v>
+        <v>21.12</v>
       </c>
       <c r="D109">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E109">
         <v>0.02</v>
@@ -3378,56 +3378,56 @@
         <v>0.01</v>
       </c>
       <c r="G109">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H109">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="I109">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-08 12:52:17</v>
+        <v>2023-10-11 07:58:06</v>
       </c>
       <c r="B110">
+        <v>15.9</v>
+      </c>
+      <c r="C110">
+        <v>21.12</v>
+      </c>
+      <c r="D110">
+        <v>63</v>
+      </c>
+      <c r="E110">
+        <v>0.02</v>
+      </c>
+      <c r="F110">
+        <v>0.01</v>
+      </c>
+      <c r="G110">
+        <v>8</v>
+      </c>
+      <c r="H110">
+        <v>13.8</v>
+      </c>
+      <c r="I110">
         <v>15</v>
-      </c>
-      <c r="C110">
-        <v>21.71</v>
-      </c>
-      <c r="D110">
-        <v>66</v>
-      </c>
-      <c r="E110">
-        <v>0.02</v>
-      </c>
-      <c r="F110">
-        <v>0.01</v>
-      </c>
-      <c r="G110">
-        <v>11</v>
-      </c>
-      <c r="H110">
-        <v>14</v>
-      </c>
-      <c r="I110">
-        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-08 18:02:22</v>
+        <v>2023-10-11 13:06:31</v>
       </c>
       <c r="B111">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C111">
-        <v>21.71</v>
+        <v>21.12</v>
       </c>
       <c r="D111">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E111">
         <v>0.02</v>
@@ -3436,404 +3436,404 @@
         <v>0.01</v>
       </c>
       <c r="G111">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H111">
-        <v>13.3</v>
+        <v>14</v>
       </c>
       <c r="I111">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-08 23:11:59</v>
+        <v>2023-10-11 18:17:19</v>
       </c>
       <c r="B112">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112">
-        <v>21.71</v>
+        <v>21.12</v>
       </c>
       <c r="D112">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E112">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F112">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G112">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H112">
-        <v>13.3</v>
+        <v>14.5</v>
       </c>
       <c r="I112">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-09 04:21:58</v>
+        <v>2023-10-11 23:26:32</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>15.9</v>
       </c>
       <c r="C113">
-        <v>20.93</v>
+        <v>21.12</v>
       </c>
       <c r="D113">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E113">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F113">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G113">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H113">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="I113">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-09 09:33:23</v>
+        <v>2023-10-12 04:36:32</v>
       </c>
       <c r="B114">
-        <v>15</v>
+        <v>15.9</v>
       </c>
       <c r="C114">
-        <v>20.93</v>
+        <v>21.45</v>
       </c>
       <c r="D114">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E114">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F114">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G114">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H114">
-        <v>13.4</v>
+        <v>14.6</v>
       </c>
       <c r="I114">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-09 14:44:22</v>
+        <v>2023-10-12 09:48:13</v>
       </c>
       <c r="B115">
-        <v>14.69</v>
+        <v>15.5</v>
       </c>
       <c r="C115">
-        <v>20.93</v>
+        <v>21.45</v>
       </c>
       <c r="D115">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E115">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F115">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G115">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H115">
-        <v>13.4</v>
+        <v>14.8</v>
       </c>
       <c r="I115">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-09 19:52:11</v>
+        <v>2023-10-12 14:56:36</v>
       </c>
       <c r="B116">
-        <v>14.49</v>
+        <v>15.5</v>
       </c>
       <c r="C116">
-        <v>20.93</v>
+        <v>21.45</v>
       </c>
       <c r="D116">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E116">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F116">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G116">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H116">
-        <v>13.5</v>
+        <v>14.8</v>
       </c>
       <c r="I116">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-10 01:02:10</v>
+        <v>2023-10-12 20:08:09</v>
       </c>
       <c r="B117">
-        <v>14.39</v>
+        <v>15.4</v>
       </c>
       <c r="C117">
-        <v>20.93</v>
+        <v>21.45</v>
       </c>
       <c r="D117">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E117">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F117">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G117">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H117">
-        <v>13.6</v>
+        <v>14.8</v>
       </c>
       <c r="I117">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-10 06:12:09</v>
+        <v>2023-10-13 01:17:42</v>
       </c>
       <c r="B118">
-        <v>14.29</v>
+        <v>15.4</v>
       </c>
       <c r="C118">
-        <v>20.34</v>
+        <v>21.45</v>
       </c>
       <c r="D118">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E118">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F118">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G118">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H118">
-        <v>13.6</v>
+        <v>14.8</v>
       </c>
       <c r="I118">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-10 11:17:15</v>
+        <v>2023-10-13 06:28:09</v>
       </c>
       <c r="B119">
-        <v>14.49</v>
+        <v>15.4</v>
       </c>
       <c r="C119">
-        <v>20.34</v>
+        <v>20.41</v>
       </c>
       <c r="D119">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E119">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F119">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G119">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H119">
-        <v>13.6</v>
+        <v>14.8</v>
       </c>
       <c r="I119">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-10 16:25:58</v>
+        <v>2023-10-13 11:38:21</v>
       </c>
       <c r="B120">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="C120">
-        <v>20.34</v>
+        <v>20.41</v>
       </c>
       <c r="D120">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E120">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F120">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G120">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H120">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
       <c r="I120">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-10 21:38:29</v>
+        <v>2023-10-13 16:46:55</v>
       </c>
       <c r="B121">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="C121">
-        <v>20.34</v>
+        <v>20.41</v>
       </c>
       <c r="D121">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E121">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F121">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G121">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H121">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
       <c r="I121">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-11 02:48:41</v>
+        <v>2023-10-13 21:56:54</v>
       </c>
       <c r="B122">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C122">
-        <v>21.12</v>
+        <v>20.41</v>
       </c>
       <c r="D122">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E122">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F122">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G122">
         <v>8</v>
       </c>
       <c r="H122">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
       <c r="I122">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-11 07:58:06</v>
+        <v>2023-10-14 03:09:14</v>
       </c>
       <c r="B123">
-        <v>15.9</v>
+        <v>15.88</v>
       </c>
       <c r="C123">
-        <v>21.12</v>
+        <v>22.16</v>
       </c>
       <c r="D123">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E123">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F123">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H123">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
       <c r="I123">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-11 13:06:31</v>
+        <v>2023-10-14 08:17:46</v>
       </c>
       <c r="B124">
-        <v>14.9</v>
+        <v>15.88</v>
       </c>
       <c r="C124">
-        <v>21.12</v>
+        <v>22.16</v>
       </c>
       <c r="D124">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E124">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F124">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H124">
-        <v>14</v>
+        <v>14.8</v>
       </c>
       <c r="I124">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-11 18:17:19</v>
+        <v>2023-10-14 13:30:51</v>
       </c>
       <c r="B125">
-        <v>16</v>
+        <v>15.88</v>
       </c>
       <c r="C125">
-        <v>21.12</v>
+        <v>22.16</v>
       </c>
       <c r="D125">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E125">
         <v>0.03</v>
@@ -3842,10 +3842,10 @@
         <v>0.02</v>
       </c>
       <c r="G125">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H125">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="I125">
         <v>18</v>
@@ -3853,16 +3853,16 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-11 23:26:32</v>
+        <v>2023-10-14 18:37:14</v>
       </c>
       <c r="B126">
-        <v>15.9</v>
+        <v>15.82</v>
       </c>
       <c r="C126">
-        <v>21.12</v>
+        <v>22.16</v>
       </c>
       <c r="D126">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E126">
         <v>0.03</v>
@@ -3871,27 +3871,27 @@
         <v>0.02</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H126">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="I126">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-12 04:36:32</v>
+        <v>2023-10-14 23:47:38</v>
       </c>
       <c r="B127">
-        <v>15.9</v>
+        <v>15.72</v>
       </c>
       <c r="C127">
-        <v>21.45</v>
+        <v>22.16</v>
       </c>
       <c r="D127">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E127">
         <v>0.03</v>
@@ -3903,24 +3903,24 @@
         <v>7</v>
       </c>
       <c r="H127">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="I127">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-12 09:48:13</v>
+        <v>2023-10-15 04:57:40</v>
       </c>
       <c r="B128">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C128">
-        <v>21.45</v>
+        <v>21.91</v>
       </c>
       <c r="D128">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E128">
         <v>0.03</v>
@@ -3935,21 +3935,21 @@
         <v>14.8</v>
       </c>
       <c r="I128">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-12 14:56:36</v>
+        <v>2023-10-15 10:07:27</v>
       </c>
       <c r="B129">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C129">
-        <v>21.45</v>
+        <v>21.91</v>
       </c>
       <c r="D129">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E129">
         <v>0.03</v>
@@ -3961,24 +3961,24 @@
         <v>7</v>
       </c>
       <c r="H129">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="I129">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-12 20:08:09</v>
+        <v>2023-10-15 15:17:26</v>
       </c>
       <c r="B130">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="C130">
-        <v>21.45</v>
+        <v>21.91</v>
       </c>
       <c r="D130">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E130">
         <v>0.03</v>
@@ -3990,7 +3990,7 @@
         <v>7</v>
       </c>
       <c r="H130">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="I130">
         <v>18</v>
@@ -3998,16 +3998,16 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-13 01:17:42</v>
+        <v>2023-10-15 20:27:28</v>
       </c>
       <c r="B131">
         <v>15.4</v>
       </c>
       <c r="C131">
-        <v>21.45</v>
+        <v>21.91</v>
       </c>
       <c r="D131">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E131">
         <v>0.03</v>
@@ -4019,24 +4019,24 @@
         <v>7</v>
       </c>
       <c r="H131">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="I131">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-13 06:28:09</v>
+        <v>2023-10-16 01:39:16</v>
       </c>
       <c r="B132">
         <v>15.4</v>
       </c>
       <c r="C132">
-        <v>20.41</v>
+        <v>21.91</v>
       </c>
       <c r="D132">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E132">
         <v>0.03</v>
@@ -4048,24 +4048,24 @@
         <v>7</v>
       </c>
       <c r="H132">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="I132">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-13 11:38:21</v>
+        <v>2023-10-16 06:48:32</v>
       </c>
       <c r="B133">
         <v>15.4</v>
       </c>
       <c r="C133">
-        <v>20.41</v>
+        <v>22.43</v>
       </c>
       <c r="D133">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E133">
         <v>0.03</v>
@@ -4077,24 +4077,24 @@
         <v>7</v>
       </c>
       <c r="H133">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="I133">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-13 16:46:55</v>
+        <v>2023-10-16 11:58:41</v>
       </c>
       <c r="B134">
         <v>15.4</v>
       </c>
       <c r="C134">
-        <v>20.41</v>
+        <v>22.43</v>
       </c>
       <c r="D134">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E134">
         <v>0.03</v>
@@ -4103,27 +4103,27 @@
         <v>0.02</v>
       </c>
       <c r="G134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H134">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="I134">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-13 21:56:54</v>
+        <v>2023-10-16 17:08:57</v>
       </c>
       <c r="B135">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="C135">
-        <v>20.41</v>
+        <v>22.43</v>
       </c>
       <c r="D135">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E135">
         <v>0.03</v>
@@ -4132,27 +4132,27 @@
         <v>0.02</v>
       </c>
       <c r="G135">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H135">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="I135">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-14 03:09:14</v>
+        <v>2023-10-16 22:17:53</v>
       </c>
       <c r="B136">
-        <v>15.88</v>
+        <v>15.1</v>
       </c>
       <c r="C136">
-        <v>22.16</v>
+        <v>22.43</v>
       </c>
       <c r="D136">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E136">
         <v>0.03</v>
@@ -4164,24 +4164,24 @@
         <v>7</v>
       </c>
       <c r="H136">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="I136">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-14 08:17:46</v>
+        <v>2023-10-17 03:30:22</v>
       </c>
       <c r="B137">
-        <v>15.88</v>
+        <v>16</v>
       </c>
       <c r="C137">
-        <v>22.16</v>
+        <v>22.55</v>
       </c>
       <c r="D137">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E137">
         <v>0.03</v>
@@ -4193,24 +4193,24 @@
         <v>7</v>
       </c>
       <c r="H137">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="I137">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-14 13:30:51</v>
+        <v>2023-10-17 08:37:59</v>
       </c>
       <c r="B138">
-        <v>15.88</v>
+        <v>16</v>
       </c>
       <c r="C138">
-        <v>22.16</v>
+        <v>22.55</v>
       </c>
       <c r="D138">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E138">
         <v>0.03</v>
@@ -4219,27 +4219,27 @@
         <v>0.02</v>
       </c>
       <c r="G138">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H138">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="I138">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-14 18:37:14</v>
+        <v>2023-10-17 13:48:44</v>
       </c>
       <c r="B139">
-        <v>15.82</v>
+        <v>16</v>
       </c>
       <c r="C139">
-        <v>22.16</v>
+        <v>22.55</v>
       </c>
       <c r="D139">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E139">
         <v>0.03</v>
@@ -4248,10 +4248,10 @@
         <v>0.02</v>
       </c>
       <c r="G139">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H139">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="I139">
         <v>18</v>
@@ -4259,16 +4259,16 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-14 23:47:38</v>
+        <v>2023-10-17 18:59:46</v>
       </c>
       <c r="B140">
-        <v>15.72</v>
+        <v>15.88</v>
       </c>
       <c r="C140">
-        <v>22.16</v>
+        <v>22.55</v>
       </c>
       <c r="D140">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E140">
         <v>0.03</v>
@@ -4277,27 +4277,27 @@
         <v>0.02</v>
       </c>
       <c r="G140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H140">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="I140">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-15 04:57:40</v>
+        <v>2023-10-18 00:09:08</v>
       </c>
       <c r="B141">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C141">
-        <v>21.91</v>
+        <v>22.55</v>
       </c>
       <c r="D141">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E141">
         <v>0.03</v>
@@ -4306,27 +4306,27 @@
         <v>0.02</v>
       </c>
       <c r="G141">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H141">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="I141">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-15 10:07:27</v>
+        <v>2023-10-18 05:20:06</v>
       </c>
       <c r="B142">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C142">
-        <v>21.91</v>
+        <v>24.44</v>
       </c>
       <c r="D142">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E142">
         <v>0.03</v>
@@ -4335,27 +4335,27 @@
         <v>0.02</v>
       </c>
       <c r="G142">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H142">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="I142">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-15 15:17:26</v>
+        <v>2023-10-18 10:28:26</v>
       </c>
       <c r="B143">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C143">
-        <v>21.91</v>
+        <v>24.44</v>
       </c>
       <c r="D143">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E143">
         <v>0.03</v>
@@ -4364,27 +4364,27 @@
         <v>0.02</v>
       </c>
       <c r="G143">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H143">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="I143">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-15 20:27:28</v>
+        <v>2023-10-18 15:38:25</v>
       </c>
       <c r="B144">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="C144">
-        <v>21.91</v>
+        <v>24.44</v>
       </c>
       <c r="D144">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E144">
         <v>0.03</v>
@@ -4393,27 +4393,27 @@
         <v>0.02</v>
       </c>
       <c r="G144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H144">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="I144">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-16 01:39:16</v>
+        <v>2023-10-18 20:49:34</v>
       </c>
       <c r="B145">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="C145">
-        <v>21.91</v>
+        <v>24.44</v>
       </c>
       <c r="D145">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E145">
         <v>0.03</v>
@@ -4422,27 +4422,27 @@
         <v>0.02</v>
       </c>
       <c r="G145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H145">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="I145">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-16 06:48:32</v>
+        <v>2023-10-19 01:58:31</v>
       </c>
       <c r="B146">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="C146">
-        <v>22.43</v>
+        <v>24.44</v>
       </c>
       <c r="D146">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E146">
         <v>0.03</v>
@@ -4451,10 +4451,10 @@
         <v>0.02</v>
       </c>
       <c r="G146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H146">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="I146">
         <v>16</v>
@@ -4462,16 +4462,16 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-16 11:58:41</v>
+        <v>2023-10-19 07:12:47</v>
       </c>
       <c r="B147">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="C147">
-        <v>22.43</v>
+        <v>23.72</v>
       </c>
       <c r="D147">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E147">
         <v>0.03</v>
@@ -4483,7 +4483,7 @@
         <v>6</v>
       </c>
       <c r="H147">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="I147">
         <v>17</v>
